--- a/Databases/korean_sentences.xlsx
+++ b/Databases/korean_sentences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer-1\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E19F131-BF37-4637-AC48-E599C00E99D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7785076E-CF23-4836-98B9-A786608EA14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19515" yWindow="6630" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16185" yWindow="7305" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="A2:D9"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Databases/korean_sentences.xlsx
+++ b/Databases/korean_sentences.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer-1\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Me\Documents\GitHub Clones\anki-card-importer\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7785076E-CF23-4836-98B9-A786608EA14E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C64D02C-012A-44E0-AC37-31FD42C460F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16185" yWindow="7305" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27810" yWindow="7740" windowWidth="18570" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sentences" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="61">
   <si>
     <t>FOREIGN</t>
   </si>
@@ -32,6 +32,177 @@
   </si>
   <si>
     <t>DATE</t>
+  </si>
+  <si>
+    <t>to make/cost a mint</t>
+  </si>
+  <si>
+    <t>to join a Brownie pack</t>
+  </si>
+  <si>
+    <t>to take out an insurance policy/a mortgage/a loan</t>
+  </si>
+  <si>
+    <t>He’s had a car ever since he was 18.</t>
+  </si>
+  <si>
+    <t>I haven't eaten since breakfast.</t>
+  </si>
+  <si>
+    <t>Since 1977 otter hunting has been illegal.</t>
+  </si>
+  <si>
+    <t>a trail of blood</t>
+  </si>
+  <si>
+    <t>a long pass to Rooney</t>
+  </si>
+  <si>
+    <t>a long queue at the till</t>
+  </si>
+  <si>
+    <t>I’ve lost track of the time talking with you.</t>
+  </si>
+  <si>
+    <t>The Real James Bonds Speak Out</t>
+  </si>
+  <si>
+    <t>put it in a less paradoxical form</t>
+  </si>
+  <si>
+    <t>to peddle illegal drugs</t>
+  </si>
+  <si>
+    <t>to be in paid employment</t>
+  </si>
+  <si>
+    <t>to carry extra poundage</t>
+  </si>
+  <si>
+    <t>She changed her name to his.</t>
+  </si>
+  <si>
+    <t>St George slew the dragon.</t>
+  </si>
+  <si>
+    <t>the dome of St Paul’s Cathedral</t>
+  </si>
+  <si>
+    <t>The shock caused her to miscarry.</t>
+  </si>
+  <si>
+    <t>They each received a legacy of $5000.</t>
+  </si>
+  <si>
+    <t>We are the inheritors of a great cultural tradition.</t>
+  </si>
+  <si>
+    <t>School trip to Jeju Island next week!</t>
+  </si>
+  <si>
+    <t>make a school excursion to</t>
+  </si>
+  <si>
+    <t>I went on a school field trip to Jeju Island.</t>
+  </si>
+  <si>
+    <t>많은 돈을 벌다/많은 돈이 들다</t>
+  </si>
+  <si>
+    <t>유년 걸 스카우트 단에 들다</t>
+  </si>
+  <si>
+    <t>보험에 들다/담보 대출을 받다/융자를 받다</t>
+  </si>
+  <si>
+    <t>그는 18세 이후로 줄곧 자기 차가 있었다.</t>
+  </si>
+  <si>
+    <t>나는 아침 식사 이후로 아무것도 안 먹었다.</t>
+  </si>
+  <si>
+    <t>1977년 이후로 수달 사냥은 불법이 되었다.</t>
+  </si>
+  <si>
+    <t>길게 나 있는 핏자국</t>
+  </si>
+  <si>
+    <t>루니에게 길게 한 패스</t>
+  </si>
+  <si>
+    <t>계산대에 길게 늘어선 줄</t>
+  </si>
+  <si>
+    <t>너랑 얘기하다 보니까 시간가는 줄 몰랐어.</t>
+  </si>
+  <si>
+    <t>실제 스파이 요원들, 스파이 활동에 대해 얘기하다</t>
+  </si>
+  <si>
+    <t>그것을 보다 더 평등하게 얘기하다.</t>
+  </si>
+  <si>
+    <t>불법 마약을 팔러 다니다</t>
+  </si>
+  <si>
+    <t>보수를 받는 직장에 다니다</t>
+  </si>
+  <si>
+    <t>가외의 무게를 지니고 다니다</t>
+  </si>
+  <si>
+    <t>그녀는 성을 그의 성으로 바꾸었다.</t>
+  </si>
+  <si>
+    <t>성 조지가 그 용을 죽였다.</t>
+  </si>
+  <si>
+    <t>성 바울 성당의 돔</t>
+  </si>
+  <si>
+    <t>그 충격으로 그녀는 유산을 했다.</t>
+  </si>
+  <si>
+    <t>그들은 각각 5 000달러의 유산을 받았다.</t>
+  </si>
+  <si>
+    <t>우리는 위대한 문화유산의 후계자이다.</t>
+  </si>
+  <si>
+    <t>다음 주 제주도로 수학여행!</t>
+  </si>
+  <si>
+    <t>…으로 수학 여행을 가다</t>
+  </si>
+  <si>
+    <t>전 수학여행을 제주도로 갔었어요.</t>
+  </si>
+  <si>
+    <t>들다</t>
+  </si>
+  <si>
+    <t>이후로</t>
+  </si>
+  <si>
+    <t>길게</t>
+  </si>
+  <si>
+    <t>얘기하다</t>
+  </si>
+  <si>
+    <t>다니다</t>
+  </si>
+  <si>
+    <t>성</t>
+  </si>
+  <si>
+    <t>유산</t>
+  </si>
+  <si>
+    <t>수학여행</t>
+  </si>
+  <si>
+    <t>2020-11-25</t>
   </si>
 </sst>
 </file>
@@ -433,13 +604,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="65.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -455,6 +631,342 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
